--- a/3D_Prints/3D_Prints_Records.xlsx
+++ b/3D_Prints/3D_Prints_Records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inventor_Projects\ARCS\PRINT_RECORDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Inventor_Projects\AlorsBot_CAD\3D_Prints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B16C890-519A-40CF-BAB8-098ABCCE5374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCDF94A-5BC7-441B-BE5F-5EDF3D30E0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="3270" windowWidth="14040" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>parts scaled to 75%</t>
+  </si>
+  <si>
+    <t>parts 75% scale. Gears with teeth</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,19 +625,19 @@
       </c>
       <c r="C2" s="5">
         <f>SUM(C3:C100)</f>
-        <v>4.3599999999999994</v>
+        <v>6.5</v>
       </c>
       <c r="D2" s="9">
         <f>SUM(D3:D100)</f>
-        <v>0.29000000000000004</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(E3:E100)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5">
         <f>SUM(F3:F100)</f>
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -733,15 +736,27 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="13">
+        <v>43886</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="C7" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="11">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6">
+        <v>78</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
